--- a/Job Hunter/exceltestsheet/ZipRecruiterData.xlsx
+++ b/Job Hunter/exceltestsheet/ZipRecruiterData.xlsx
@@ -70,7 +70,7 @@
     <x:t>Strong knowledge of ground-up stick frame (podium, wrap, garden) multifamily projects * 6+ years construction experience as a Construction Manager or Superintendent * Experience with managing ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAKKpfKdUbpfrX6uukjmd1Oeoz4KxQETm70tUGms33KLpHRcX-nqrdy5W5qkYPq0pZyToc6AWKiGTws1mn6gLnpULfsZDJCquGeO6kg4q7QyAxIEN3igbfZpauZkmlsW5lck4ZWCdpXA4gh4tLoQIHv1bBrJUsS_ss4o-pRqrrVkP-AkKWnD1w</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAK8EKdHGYONFjs4XxT4Dvhf8esdxhRqthjwYcb109juhf3CAg2HtrDnmMkb_FMIl3j409VM7Mv61aX5JYddyCFmaYDvGvLyCB43l-lSJDDrBKglhvhz0DZovG2e3iOpnEVfTa_LibHS5hLv_TxXOaa-pU6V3WXP6Mf0An7LEzliuiGHXsM61g</x:t>
   </x:si>
   <x:si>
     <x:t>Property Accountant</x:t>
@@ -85,7 +85,7 @@
     <x:t>Texas Home Builder seeking Construction Managers This Jobot Job is hosted by: Henry Chan Are you a fit? Easy Apply now by clicking the "Apply Now" button and sending us your resume. Salary: $65,000 ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAJXZ3Tr-SLgxMR4NTXyopKec-cQaxpYxeVd0quzJti6ZnxuO21lqx-QuiEJlr03iXJmkZ-OnbEhx9YjV9UQmuKGamdL7EgfS0BgtB9s3bvxv6Mp04-2HTEdZlzfqMAQ8irZwGKN9foHn6t73DR9QmrOlRDmpvPiP0at4djmlyTeJdAJEW1fow</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAK-Jb_bcveOnTcdYOCWuYeewTFCTtHJtTPEKD4ewlIeWTddR9qGe3G0LGGdnB4jTu0kY6ySX2XrRW-PO1YCNqJ7yeDfW1VIwM8KVNIxaPRbjqjkI1qt7calYtYzhqbpIbdfd4DU83nwkvv3Zj-MqKNFWoUwbf9NAlS9Pl4hfI4TXFvVjHaCYg</x:t>
   </x:si>
   <x:si>
     <x:t>Junior Accountant</x:t>
@@ -97,7 +97,7 @@
     <x:t>The Construction Manager role is a player/coach position responsible for both managing overall construction execution of individual projects and overseeing 3rd party construction management firm in ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAI90btI7rMQ_5yx30IkzLhliMKM_7jkE_N1K_A3_DP6yE62kzC-YGUuGfDd0CmAOPim0t1u0lZpC_hRwtPVXPDDnnjBwo_uKtIY3PjYhvXeMkNKWjQfu1RlCFjgZikxt_5G7jz7HN6eVT3f_bcQl6TYMJXEzBQ9qeIBDgLR7nLrkAWtGRihEw</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAJ0z_Ri8IEIA96X8ACCeZelvcn2mbH5h24TWfMcQJVgJFdwfOq6vkX0Pi-C1APb2fP55T7rY4I0uunWrdM9k8BhKYe09jY8RulE6eRQJ9sBHO76XFtarg_495_g37UnR58bJ3fVaChk8uQ0XvDTdEYVW1QcdVqnlCsSdGo1VJXAcBYJVcfVyA</x:t>
   </x:si>
   <x:si>
     <x:t>Accountant</x:t>
@@ -112,7 +112,7 @@
     <x:t>The Construction Manager will focus on the following: * Manage homebuilding construction through all phases to ensure the delivery of a quality home * Schedule subcontractors and delivery dates for ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAIXsdB1ATB40YzExXe_n-WAzK1mKodhLEMQdtF4f0yOBdOwPuDMlgDpbNfdA9lcewS_ROcBmIMYAeYsGd93OIdc0lr6pbJR0oJkVXbCdawsRNfhKF5BYt5G8uXKt8CIMKIF-brvDY2G_gWKgwWxvq3VFf9T7anvrA--jLY19TTzRFAQrArtAw</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAIaXYqaVYgwohWgTlQsZWkJclWLNOh8PYIRAFr0xUORBtFl0iCdqc-GpTta9hpqv2B6Zabmf9Jn-H80jKVUBsMNm9x25fLHopI0xh-5lK977mu9laWss9ckUkAVXatO4YGpgsQK0Thmdwd1rLNFQFeogxYjYvRcadc11fAw6ioVNzHz9A_44g</x:t>
   </x:si>
   <x:si>
     <x:t>Senior Accountant, Ecommerce Clients</x:t>
@@ -127,7 +127,7 @@
     <x:t>L&amp;S Mechanical has been in business for over 30 years and is one of the fastest growing residential construction companies in the U.S. This could be the career opportunity you have been searching for ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/ek/l/AAK6qktZtXYLKyMMs8umOIoENWY_US69mNSHcpaP2V54uaeovJ4v8NmYDv44QJPKpshbl5-mgEKqvX1wE7REBFUuWDHbLlvctOzmCqQV4ftuXI8Hn2hryQpzSLkhOyLwX_NjV3AmdwpgdlhmGDTaozTP0hdE9tM93VmTXjzy7R9jZ-97Lanx6Q</x:t>
+    <x:t>https://www.ziprecruiter.com/ek/l/AAIZ15FtHnM1nCAldE0gUjmfWXD2r-QaYDT8o2bp2BMlv2VDA0IWKdWDltfMOPfeZr2VkjDknzUKG34IbrEP_cHXllTsT6hrmAKxODOeifjTdLFMIU4MRoEXSECplm4vTfvAQlehjFikKDWiQxxScKsVR7O2GDbiYaseMRHZdPPpKSyopQOgig</x:t>
   </x:si>
   <x:si>
     <x:t>Property Accountant - Real Estate</x:t>
@@ -142,7 +142,7 @@
     <x:t>As a Construction Superintendent with UG, you will assist the Project Manager with luxury mid-rise apartment projects in Houston. Primary responsibilities: · Understand and manage all aspects of the ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAJk1Kec8WTlVQ_wf2G3X23ybGByiQQZ4OdJdGtval0fL--j22XN_SNVdSRcRnYEEKG720T9cH_XFsCjsuixF7x8zn9EGmMYWY1Zjl0vVLdsX2uIpd8OeXYYTaHx8ihg_VaEoO9oF4vW1PZPs4tg8vxWpjtDDlHoWny4BdGgnjOd5XHLpAh-CQ</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAKgDsqtHLCbsfEcjRdJQHPKA8-Yv904kk_paKPKWfwLZyzMRG9shPKvErBtP5YeBVIXvOGRpsBeLUhmGbNcXdq21vzOM6ALrsejlCh55h2yRhql0d4pUIz8NJ7XDWjgXgQZA-3hZSnXAzCHlW3USBpCJ6M817sb7jFi0cSaUHOPdU29cAW8BA</x:t>
   </x:si>
   <x:si>
     <x:t>Staff Accountant</x:t>
@@ -157,7 +157,7 @@
     <x:t>The Design &amp; Construction Project Manager II provides professional architectural services for design and construction on all architectural work as it relates to remodeling, renovation and new ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAL5uBQgIcIyvC7xITi2Kyq9YIZD_xl-bGfXKIz_Qg1GRl9uXHobkeGfa73Yt__HOj2e6bLHhtbVpA1f_GuxAPLOCGYvPhWK8kfiplN5fmsr8bK56JWdR60tCfEYpfBxDDB-bwZghRgiOde0eUNg7CVfQz9jl151CKvstGovVL1Lg1L2E--uGg</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAKoPjQiU7W7jRnszW0KEG06BGfySCHLOaYl_PF2eI3Y7FVm-YSSk0sRZR8CfBdcYffb4we8ytqpKY3W01YtG8bSS3iTzgAL7pr-fZQvfg_7FXHDgV8v5OvftuQ397csEdWnuNkj8Cs1K0NrM11gkfcercc-ZdL1XbP4fBAG-jOyLhKK9sOI7g</x:t>
   </x:si>
   <x:si>
     <x:t>Weinstein &amp; Wohlafka CPAs PC</x:t>
@@ -169,7 +169,7 @@
     <x:t>Requirements: * 10+ years of field experience within the HVAC construction industry (REQUIRED) * 10+ years of field experience within the Plumbing construction industry (preferred) * Possess ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAJCbGYRXav47hXZzUOiKux5GXtycSRGJoGWUz0G_Ib1zjWzGDpJAij0tAWraJJOQhtUatDSxCm7s7SZIe2AtFQK4XCHhdwVhrTl4BYh3OMnjvFRSjaHxH-KhzecyPDXATfw7rmovztnBCpXChcvKuiVus3vxRx982tVSQlgT1A8SZ2SPojuGQ</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAK2M4cxQkrEl38mxj6YOe42G8lUqJcotFvFVli83baTm30QAfAvm_YIummYxbR0WaUkaY6B4SQkl9KTr9TQ8DkZHvBvMFwUIbSJEqKxZW1OW7WDvgvO6zZyTRAdNmW0RqwkdP64yQO7Mez9_8DToRxRzgSpxgeFd3wRJ3jqo0RTSX7-gJzBqg</x:t>
   </x:si>
   <x:si>
     <x:t>Senior Accountant CPA</x:t>
@@ -181,7 +181,7 @@
     <x:t>Chuba Construction is looking for a crew of 5-6 or 10-12 that are experts at concrete formwork, placement, and finishing. We will start off specifically doing residential foundations in the Dallas ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAK8aZbu1cls0UNBKTVGJU8i8BHpeUQnQT3bahjrX90Rrxr5ZY6y2xNdhur7stAF27bD2N9-9H5bOM-2FVeqoYNtS-rkXMmH7WyTaaleiPoWKJXkEuEh8kx6NkKaEpnqHOh_G4kuL_Q1HKiLa57ZiqED22uCtAlEVdwT9wVZSDkYeDbgcVgB0Q</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAL48Rh1EHGsBJq_5gzCQmmqb6GxQxpNG04GUxfZdD9AtKupDLzFNpe4LTInK51vJcvRsCof8w-aHCpgiMxYco1ErSvUVs5_-lPmworZtVrm-BJau4iUEkzxIb1JIrgA883XGCbw1jn59LxR_p-lKJYSUbp4Rhv9q6D1bQjJRQ0bLKI3k4llyA</x:t>
   </x:si>
   <x:si>
     <x:t>Senior Accountant</x:t>
@@ -193,7 +193,7 @@
     <x:t>Minimum of 5 years in construction management * Proficient use of MS Office and other programs, with an ability to become familiar with firm-specific programs and software * Proficiency in ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAL6qUqII3n_jtGu68KJZmtmUUe-aAYwK2YCKhuu70ocKLNMpMpBYQh0AWe22klzm5nUk9cLvnslO-w9rklCKbP_Pn6UZux5hSBLoyKzdTq6z1a9Q_lAybrgp8jk9hzFPDcri74KkVa2XptiLQCjoJEwtivy2fhfLVipGkvfPJWgiyatOTwtFSA</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAIBquUeYBUSZL0QusytWw5q7xQt6gbpfpQaDqyaDEsP39kHYOL_6Qtzbg-13hFesDe77A65xGJmYA2I9y5_QeY9xX44FJquOUvP9J7VIA54DVy6niQBtQ0YkSsD6jpkoKCvZ4_CjbnzvjR1hzzJe5vBRK60AmF0Zt8QVGCQbK3CRvYp3V_eXmA</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -236,8 +236,44 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="50">
+  <x:cellStyleXfs count="62">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/Job Hunter/exceltestsheet/ZipRecruiterData.xlsx
+++ b/Job Hunter/exceltestsheet/ZipRecruiterData.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <x:si>
     <x:t>jobTitle</x:t>
   </x:si>
@@ -70,7 +70,22 @@
     <x:t>Strong knowledge of ground-up stick frame (podium, wrap, garden) multifamily projects * 6+ years construction experience as a Construction Manager or Superintendent * Experience with managing ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAK8EKdHGYONFjs4XxT4Dvhf8esdxhRqthjwYcb109juhf3CAg2HtrDnmMkb_FMIl3j409VM7Mv61aX5JYddyCFmaYDvGvLyCB43l-lSJDDrBKglhvhz0DZovG2e3iOpnEVfTa_LibHS5hLv_TxXOaa-pU6V3WXP6Mf0An7LEzliuiGHXsM61g</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAKn0EU9NZ9JGogmToGLK8Jm1iRzYvpzOQN41N1hst6Afychm3IZdKY25Pt-1ZxoPZLzEOgT8MzcBfbNhonWOneoHNYM1DlDU7PisiJcZFz9yQlabUeI1eRlgqIYbN4L6UgRL27BUFe7qWK8pt9B5TvZ5TOzP6yuO40CW2_e3oJalPAeQ_na</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>National Systems America LP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manhattan, NY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We are seeking a Commercial Construction Superintendent to join our team! You will oversee project planning, scheduling, subcontractors work. Responsibilities: * Oversee all aspects of construction ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAIvuvup4F97ByPr-Drj6tOWUr_3mr6YwW6F-w-JonEuZfK7KhQinV_SLxolxkuYgmO49fGs7aTMbQ2u-thRQNM_7TUG6m9ZXGHxK_Fw28oDsxn6UsdB4KdRgUgQU-9MQdISvpIAypVF1S_wjFyOJVoMa06Wmon-JLDo7qjKSa1yd61nlT0B</x:t>
   </x:si>
   <x:si>
     <x:t>Property Accountant</x:t>
@@ -79,40 +94,85 @@
     <x:t>Creative Financial Staffing (CFS)</x:t>
   </x:si>
   <x:si>
-    <x:t>Manhattan, NY</x:t>
+    <x:t>Education * 4 yr degree in engineering, construction science, construction management or similar Position Summary We are looking for an Assistant Project Manager to perform the technical and support ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAJuEZjmoIXW-k7Dlm0LiYTxuonnmxZwGAqa-Z3dJXsUAV13uQiEnLi9f2UZvMLabNugiIZTJkCJ1waEZlap7kKPpVBNaaTY6mKm-wORFafli8q6jxs4Tqgo7DzQHyNA6_QYjP2MN1gJ87mFvOlAoSOPas4p3kWGAf8LvDG2F_8YWLwPPHcY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bookkeeper Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abetta Boiler Welding INC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Talent Corps is currently hiring for General Labors for the Fort Worth, TX area for a Temp to Perm position. Candidates are needing to be physically fit as this job is physically demanding and may ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAK-NMF07hninHmQnqOLp9jlHULdi_6fGcx8gSDSyqvcwf9BpzW-w9HmASQzm22TlmkXYgFvuhJusRoEE55hW_3G1NgiwcTOCj_H9THhoLznCiAGLbcC3yO6peQYL0EeeJVgiHawOdexw7wvp92NPmlG7GzaW5nlSE_o1p-oQ_IgdHAfDwKS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Staff Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indcorp Fiscal Services Inc.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Island Park, NY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Restaurant Depot is seeking a Construction &amp; Maintenance Manager. Position will be based out of the Dallas/Richardson area offices. This person will be working under the direction of the Director of ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAL-AMNGLKjtIy0ngvz2m-3vpBPd1s52zBx6-VE6JLDeOKKAPVn7I1ewhpaIRHdWKQpAk477uSje-L9QKsm-C15YmZ0_3gp6Y5Nuy1X0rgnBimX6npM4FrFjrJo7viKhMLMAXmRip9nVZNFmU0wp6MFmtqb0I40POgJ_RzELGjcda2AALpMW</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junior Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Greater New York Insurance Companies</x:t>
   </x:si>
   <x:si>
     <x:t>Texas Home Builder seeking Construction Managers This Jobot Job is hosted by: Henry Chan Are you a fit? Easy Apply now by clicking the "Apply Now" button and sending us your resume. Salary: $65,000 ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAK-Jb_bcveOnTcdYOCWuYeewTFCTtHJtTPEKD4ewlIeWTddR9qGe3G0LGGdnB4jTu0kY6ySX2XrRW-PO1YCNqJ7yeDfW1VIwM8KVNIxaPRbjqjkI1qt7calYtYzhqbpIbdfd4DU83nwkvv3Zj-MqKNFWoUwbf9NAlS9Pl4hfI4TXFvVjHaCYg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Junior Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Greater New York Insurance Companies</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAIM8p5PnmW1w3qLf-pRhZP-tax17jRIloz7G5phthY7wi-StrjG0yb0Di35N-URKP4Naq8cirV5VRYfW9w7WFjt471WZs7qRKNv72y0mhUSBa5ZTG_kGAMf720CRM9APtmLvgBCYv8KbSaO-OWYC2ffX0cKFcH2HXPwgTKHM5OkOX5qlbgi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>E-Z TAX GROUP NORTH AMERICA INC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flushing, NY</x:t>
   </x:si>
   <x:si>
     <x:t>The Construction Manager role is a player/coach position responsible for both managing overall construction execution of individual projects and overseeing 3rd party construction management firm in ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAJ0z_Ri8IEIA96X8ACCeZelvcn2mbH5h24TWfMcQJVgJFdwfOq6vkX0Pi-C1APb2fP55T7rY4I0uunWrdM9k8BhKYe09jY8RulE6eRQJ9sBHO76XFtarg_495_g37UnR58bJ3fVaChk8uQ0XvDTdEYVW1QcdVqnlCsSdGo1VJXAcBYJVcfVyA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E-Z TAX GROUP NORTH AMERICA INC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flushing, NY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Construction Manager will focus on the following: * Manage homebuilding construction through all phases to ensure the delivery of a quality home * Schedule subcontractors and delivery dates for ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAIaXYqaVYgwohWgTlQsZWkJclWLNOh8PYIRAFr0xUORBtFl0iCdqc-GpTta9hpqv2B6Zabmf9Jn-H80jKVUBsMNm9x25fLHopI0xh-5lK977mu9laWss9ckUkAVXatO4YGpgsQK0Thmdwd1rLNFQFeogxYjYvRcadc11fAw6ioVNzHz9A_44g</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAKcAIY5P2hmJb5reyjOKUvhwskuRvOj5yVtB5HQiOaO4T37Lxr_jEngwbYJq4btvK5Wg_LeKZIjF76gvcJa6o66L2CXLQQwfpzc0FKHpzTd1kPB84_X242b5gwETQlpIFyl7F-jGBG-pDko7DKMRaggkwxwSkxYYibXmRPay6q0LpnUApgU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Real Estate Management Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bellmore, NY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Primary Function The General Superintendent oversees the construction of multiple projects. He/she will coordinate with other superintendents to ensure other jobsites are being manned properly and ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AALHIk41TDxgz9HrNt5nNVuCqj5RpqW32nBI-4ahi76pFtyVNldXPXtgef9EsSvmbt6CTkQcCBBLgEYeXze2EvKZfIuhPdq9u3kDC6mEQYS56K2PdX_QbMX3lHEQs_GEdgAugfk_Zj2e5h7HcZr1wftfXZKgUYanc67axITWgHnBRHB6MxTM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zing Professional Recruiting a Peoplelink Group Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Norwood, NJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We are seeking a Construction Project Engineer to join our team! Responsibilities: * Verify project drawing and specification compliance * Method of Procedure research and development * Construction ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAKeJAWObIEBRL7z0gUgVHe5ao4Y3_vwoloBtiAXsnPjIRCpqeE5XxA0tzkmVWmnbkHu0e8BEd4xe2g-i_7EMWWpEKWhZiCoxt_VM1T0ciLOak40lIEJAm773F9logEkzmtJSOqbemFFVcrvW6HOxysvAa1flIzMjE6m6rkj39xanK_FnD5U</x:t>
   </x:si>
   <x:si>
     <x:t>Senior Accountant, Ecommerce Clients</x:t>
@@ -124,76 +184,10 @@
     <x:t>New York, New York</x:t>
   </x:si>
   <x:si>
-    <x:t>L&amp;S Mechanical has been in business for over 30 years and is one of the fastest growing residential construction companies in the U.S. This could be the career opportunity you have been searching for ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/ek/l/AAIZ15FtHnM1nCAldE0gUjmfWXD2r-QaYDT8o2bp2BMlv2VDA0IWKdWDltfMOPfeZr2VkjDknzUKG34IbrEP_cHXllTsT6hrmAKxODOeifjTdLFMIU4MRoEXSECplm4vTfvAQlehjFikKDWiQxxScKsVR7O2GDbiYaseMRHZdPPpKSyopQOgig</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Property Accountant - Real Estate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Loughlin Personnel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>White Plains, NY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>As a Construction Superintendent with UG, you will assist the Project Manager with luxury mid-rise apartment projects in Houston. Primary responsibilities: · Understand and manage all aspects of the ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAKgDsqtHLCbsfEcjRdJQHPKA8-Yv904kk_paKPKWfwLZyzMRG9shPKvErBtP5YeBVIXvOGRpsBeLUhmGbNcXdq21vzOM6ALrsejlCh55h2yRhql0d4pUIz8NJ7XDWjgXgQZA-3hZSnXAzCHlW3USBpCJ6M817sb7jFi0cSaUHOPdU29cAW8BA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Staff Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McGivney, Kluger, Clark &amp; Intoccia, P.C.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Florham Park, NJ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Design &amp; Construction Project Manager II provides professional architectural services for design and construction on all architectural work as it relates to remodeling, renovation and new ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAKoPjQiU7W7jRnszW0KEG06BGfySCHLOaYl_PF2eI3Y7FVm-YSSk0sRZR8CfBdcYffb4we8ytqpKY3W01YtG8bSS3iTzgAL7pr-fZQvfg_7FXHDgV8v5OvftuQ397csEdWnuNkj8Cs1K0NrM11gkfcercc-ZdL1XbP4fBAG-jOyLhKK9sOI7g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Weinstein &amp; Wohlafka CPAs PC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Westbury, NY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Requirements: * 10+ years of field experience within the HVAC construction industry (REQUIRED) * 10+ years of field experience within the Plumbing construction industry (preferred) * Possess ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAK2M4cxQkrEl38mxj6YOe42G8lUqJcotFvFVli83baTm30QAfAvm_YIummYxbR0WaUkaY6B4SQkl9KTr9TQ8DkZHvBvMFwUIbSJEqKxZW1OW7WDvgvO6zZyTRAdNmW0RqwkdP64yQO7Mez9_8DToRxRzgSpxgeFd3wRJ3jqo0RTSX7-gJzBqg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Accountant CPA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Louis Nardone CPA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Chuba Construction is looking for a crew of 5-6 or 10-12 that are experts at concrete formwork, placement, and finishing. We will start off specifically doing residential foundations in the Dallas ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAL48Rh1EHGsBJq_5gzCQmmqb6GxQxpNG04GUxfZdD9AtKupDLzFNpe4LTInK51vJcvRsCof8w-aHCpgiMxYco1ErSvUVs5_-lPmworZtVrm-BJau4iUEkzxIb1JIrgA883XGCbw1jn59LxR_p-lKJYSUbp4Rhv9q6D1bQjJRQ0bLKI3k4llyA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jobot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Minimum of 5 years in construction management * Proficient use of MS Office and other programs, with an ability to become familiar with firm-specific programs and software * Proficiency in ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAIBquUeYBUSZL0QusytWw5q7xQt6gbpfpQaDqyaDEsP39kHYOL_6Qtzbg-13hFesDe77A65xGJmYA2I9y5_QeY9xX44FJquOUvP9J7VIA54DVy6niQBtQ0YkSsD6jpkoKCvZ4_CjbnzvjR1hzzJe5vBRK60AmF0Zt8QVGCQbK3CRvYp3V_eXmA</x:t>
+    <x:t>Perform drywall, finishing, and Painting to complete tenant improvements for national retail construction. Truck and tools are required. Extensive travel is required with this position. Company ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/ek/l/AAKjdTbKJGppBgL4HYKoTjVnMU-iYj76Lm_6l344SXV4LnKbwFQ3jucpGrEZLpkRfjJRGiLXUmQSysus-MNW4ZOiGl9jwzw_LDW6-tyJgLAPSmsPzdyWnQwb6-3W4o_tvcULFzW9APOUx3UiTVL_uvYUeQv0L47Yv4ecDg7O8DdbMTFg6vQgmg</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -236,8 +230,44 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="62">
+  <x:cellStyleXfs count="74">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -859,136 +889,136 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D5" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E5" s="5" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D5" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E5" s="5" t="s">
+      <x:c r="F5" s="5" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="F5" s="5" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A6" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B6" s="4" t="s">
+      <x:c r="C6" s="4" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="C6" s="4" t="s">
+      <x:c r="D6" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E6" s="5" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="D6" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E6" s="5" t="s">
+      <x:c r="F6" s="5" t="s">
         <x:v>29</x:v>
-      </x:c>
-      <x:c r="F6" s="5" t="s">
-        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A7" s="4" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B7" s="4" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B7" s="4" t="s">
+      <x:c r="C7" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D7" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E7" s="5" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C7" s="4" t="s">
+      <x:c r="F7" s="5" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="D7" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E7" s="5" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="F7" s="5" t="s">
-        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A8" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B8" s="4" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C8" s="4" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="D8" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E8" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B8" s="4" t="s">
+      <x:c r="F8" s="5" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="C8" s="4" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="D8" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E8" s="5" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="F8" s="5" t="s">
-        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A9" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C9" s="4" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="D9" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E9" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F9" s="5" t="s">
         <x:v>41</x:v>
-      </x:c>
-      <x:c r="C9" s="4" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D9" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E9" s="5" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F9" s="5" t="s">
-        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A10" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B10" s="4" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C10" s="4" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D10" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E10" s="5" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="F10" s="5" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="B10" s="4" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C10" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D10" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E10" s="5" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F10" s="5" t="s">
-        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B11" s="4" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C11" s="4" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D11" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E11" s="5" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="B11" s="4" t="s">
+      <x:c r="F11" s="5" t="s">
         <x:v>50</x:v>
-      </x:c>
-      <x:c r="C11" s="4" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D11" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E11" s="5" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="F11" s="5" t="s">
-        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">

--- a/Job Hunter/exceltestsheet/ZipRecruiterData.xlsx
+++ b/Job Hunter/exceltestsheet/ZipRecruiterData.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>jobTitle</x:t>
   </x:si>
@@ -70,124 +70,130 @@
     <x:t>Strong knowledge of ground-up stick frame (podium, wrap, garden) multifamily projects * 6+ years construction experience as a Construction Manager or Superintendent * Experience with managing ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAKn0EU9NZ9JGogmToGLK8Jm1iRzYvpzOQN41N1hst6Afychm3IZdKY25Pt-1ZxoPZLzEOgT8MzcBfbNhonWOneoHNYM1DlDU7PisiJcZFz9yQlabUeI1eRlgqIYbN4L6UgRL27BUFe7qWK8pt9B5TvZ5TOzP6yuO40CW2_e3oJalPAeQ_na</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAK5bH-ujX0aetfDLmO_NKbdWMsbwFlxTXv7Mm_HbSLUWqD3vwI5avQ5BoK4tKTSg9GhKaBQWpj2P2S0gM8HDLk0_vewypxD7LRhzm-Ztn7DQuokXD69IR8Bj0hGn3bx-u6APq5XqpHnms9WT-y6J2Owm4kDIS2rrPid4ukhvuP7HG-2MTgpOA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Property Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Creative Financial Staffing (CFS)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Manhattan, NY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We are seeking a Commercial Construction Superintendent to join our team! You will oversee project planning, scheduling, subcontractors work. Responsibilities: * Oversee all aspects of construction ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAIOkH8sgkTzkiHdKM3Ybh8sFPf7b4ifP9yRV4juXwH_Kcq0gjQmI-03WzV6d3z_rIlrn5Mkvq2NmyeSgOw1NAdr9vAcss7EmPLAsZMEO8mioNuj7_A2JjpOMy-7AX_1SK_4CdnwxfWP8M8H5ejL6WNa9BhTUxEclwMClhy52z8DnJUHMGcvfQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bookkeeper Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abetta Boiler Welding INC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Education * 4 yr degree in engineering, construction science, construction management or similar Position Summary We are looking for an Assistant Project Manager to perform the technical and support ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAJZo6CtScvPi0RIcjnS8MJ8lEkNY12B729LLyiNf0eyPN4jWwvZ_DOrMpkDSKtfonwTDskZIt5uDp_TrPlRHyOJ2dywrQhFDOx4fJ-ZBSWW0OXZm3UTpd8qU_VDOBtbSJWIo6xJUkOdwQW35raEcsLU2KsGuEGr3A53ysMmK6F5gv8zgdBiQA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Staff Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indcorp Fiscal Services Inc.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Island Park, NY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Talent Corps is currently hiring for General Labors for the Fort Worth, TX area for a Temp to Perm position. Candidates are needing to be physically fit as this job is physically demanding and may ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAKwWausp_j4tC_ejXpMvxg4uKKX1bpMnO9p1QziVwsNSl924QBlX-FjR4pinqzQ3_Y9SWmSfaT9Gt5Tuwf_151HGLYivDx9WSSWYDNUA4z3_cXl4Kb799R3G0wJQ80frPQtA9dNNTv9BFt2ff1rJp5qXIqxlbjVguePuwFxcUDBZ0u91ER-jg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Junior Accountant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Greater New York Insurance Companies</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Have strong knowledge and experience of all phases of construction scope and sequence * Perform take-offs and estimation on plans * Enter and understand budgets * Possess experience with bid tabs (A ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAJeYo2Q-gj-LOVZ8S1GbwcPnUKYqgYc3Mf6wrhgcE75tkKMScn5vGgYg-SK3VYSJpyiVxe_JYVoX2YJ6bWKhtzf57CaJSD0yQA4iSK4L6MuoqRd-o_JLMfhxtDrTFSQziuDuosUopdQGGkQJEB6hbMNbuAsJr5K97jg3F2AD99G09wOZmutvw</x:t>
   </x:si>
   <x:si>
     <x:t>Accountant</x:t>
   </x:si>
   <x:si>
-    <x:t>National Systems America LP</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manhattan, NY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>We are seeking a Commercial Construction Superintendent to join our team! You will oversee project planning, scheduling, subcontractors work. Responsibilities: * Oversee all aspects of construction ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAIvuvup4F97ByPr-Drj6tOWUr_3mr6YwW6F-w-JonEuZfK7KhQinV_SLxolxkuYgmO49fGs7aTMbQ2u-thRQNM_7TUG6m9ZXGHxK_Fw28oDsxn6UsdB4KdRgUgQU-9MQdISvpIAypVF1S_wjFyOJVoMa06Wmon-JLDo7qjKSa1yd61nlT0B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Property Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Creative Financial Staffing (CFS)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Education * 4 yr degree in engineering, construction science, construction management or similar Position Summary We are looking for an Assistant Project Manager to perform the technical and support ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAJuEZjmoIXW-k7Dlm0LiYTxuonnmxZwGAqa-Z3dJXsUAV13uQiEnLi9f2UZvMLabNugiIZTJkCJ1waEZlap7kKPpVBNaaTY6mKm-wORFafli8q6jxs4Tqgo7DzQHyNA6_QYjP2MN1gJ87mFvOlAoSOPas4p3kWGAf8LvDG2F_8YWLwPPHcY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bookkeeper Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abetta Boiler Welding INC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Talent Corps is currently hiring for General Labors for the Fort Worth, TX area for a Temp to Perm position. Candidates are needing to be physically fit as this job is physically demanding and may ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAK-NMF07hninHmQnqOLp9jlHULdi_6fGcx8gSDSyqvcwf9BpzW-w9HmASQzm22TlmkXYgFvuhJusRoEE55hW_3G1NgiwcTOCj_H9THhoLznCiAGLbcC3yO6peQYL0EeeJVgiHawOdexw7wvp92NPmlG7GzaW5nlSE_o1p-oQ_IgdHAfDwKS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Staff Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Indcorp Fiscal Services Inc.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Island Park, NY</x:t>
+    <x:t>E-Z TAX GROUP NORTH AMERICA INC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flushing, NY</x:t>
   </x:si>
   <x:si>
     <x:t>Restaurant Depot is seeking a Construction &amp; Maintenance Manager. Position will be based out of the Dallas/Richardson area offices. This person will be working under the direction of the Director of ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAL-AMNGLKjtIy0ngvz2m-3vpBPd1s52zBx6-VE6JLDeOKKAPVn7I1ewhpaIRHdWKQpAk477uSje-L9QKsm-C15YmZ0_3gp6Y5Nuy1X0rgnBimX6npM4FrFjrJo7viKhMLMAXmRip9nVZNFmU0wp6MFmtqb0I40POgJ_RzELGjcda2AALpMW</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Junior Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Greater New York Insurance Companies</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAJURz5oMkNsaGPH5De8eLRxkY2wMDJm3_9PF3YVDWVTWaeJthqZIypT2fRqjVb93pfI97KpFo8DXRtr8FIQggnAAovU1TRaR06dsrT0A9GlbD2mgToR-4iLhL6WGW831_lduvRnS0xxkybTl2oCaTBu97c_fxX0IdYEztFU_4CDTJxCtVWdrA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Real Estate Management Company</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bellmore, NY</x:t>
   </x:si>
   <x:si>
     <x:t>Texas Home Builder seeking Construction Managers This Jobot Job is hosted by: Henry Chan Are you a fit? Easy Apply now by clicking the "Apply Now" button and sending us your resume. Salary: $65,000 ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAIM8p5PnmW1w3qLf-pRhZP-tax17jRIloz7G5phthY7wi-StrjG0yb0Di35N-URKP4Naq8cirV5VRYfW9w7WFjt471WZs7qRKNv72y0mhUSBa5ZTG_kGAMf720CRM9APtmLvgBCYv8KbSaO-OWYC2ffX0cKFcH2HXPwgTKHM5OkOX5qlbgi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E-Z TAX GROUP NORTH AMERICA INC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flushing, NY</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAJDUWlejnI-jKXR-0-WE9cjzypZd8vj9uL2_BPJXffUfFKui8UamwypF-H4khHniLAYJYszppuvA1V-LHceD2FIWwEUh4HVEnnIFh60QW2ZZIZRngR2CJpD7LfOD1puWCADFLpBtyF-UA6RjEtv4BGJfXf82V4NrEgY5C4plkDmcjUc11mOww</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Senior Accountant, Ecommerce Clients</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Accountingfly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>New York, New York</x:t>
   </x:si>
   <x:si>
     <x:t>The Construction Manager role is a player/coach position responsible for both managing overall construction execution of individual projects and overseeing 3rd party construction management firm in ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAKcAIY5P2hmJb5reyjOKUvhwskuRvOj5yVtB5HQiOaO4T37Lxr_jEngwbYJq4btvK5Wg_LeKZIjF76gvcJa6o66L2CXLQQwfpzc0FKHpzTd1kPB84_X242b5gwETQlpIFyl7F-jGBG-pDko7DKMRaggkwxwSkxYYibXmRPay6q0LpnUApgU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Real Estate Management Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bellmore, NY</x:t>
+    <x:t>https://www.ziprecruiter.com/ek/l/AALZh9aBzeTQRWfyJzOuBIjByuq1vkZ0xdAKR7IxQo8FLKiN4SnXbaQ3liRLljm902fKp0Xi0T2u9Ip9bsAvp26pM4LZSVno2QsLZuLe51IQWKAZDGCK9M87_sPO6KLuI74hWCw6xrp7R2YEfvfLThbJIq0Vjm_U-C4THpRNon128EszdLvt5g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Property Accountant - Real Estate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Loughlin Personnel</x:t>
+  </x:si>
+  <x:si>
+    <x:t>White Plains, NY</x:t>
   </x:si>
   <x:si>
     <x:t>Primary Function The General Superintendent oversees the construction of multiple projects. He/she will coordinate with other superintendents to ensure other jobsites are being manned properly and ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AALHIk41TDxgz9HrNt5nNVuCqj5RpqW32nBI-4ahi76pFtyVNldXPXtgef9EsSvmbt6CTkQcCBBLgEYeXze2EvKZfIuhPdq9u3kDC6mEQYS56K2PdX_QbMX3lHEQs_GEdgAugfk_Zj2e5h7HcZr1wftfXZKgUYanc67axITWgHnBRHB6MxTM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Zing Professional Recruiting a Peoplelink Group Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Norwood, NJ</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAKeCO2QEIr_QeNR19TPBBuAKVSyUimli5FAdxtLIMZD6-C5Ot3Yxo009f-UPMZNcIGR6ax2k5LRu_eaoksJNDv77UiA6D53ZADZqIA3cy7JRUc3KdRZaCk1pyi_zylOZdQ0bvirrgFLVtQCXmIu3kXeVNTYBTKXd-XagsozdZ49RF9lpI185A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>McGivney, Kluger, Clark &amp; Intoccia, P.C.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Florham Park, NJ</x:t>
   </x:si>
   <x:si>
     <x:t>We are seeking a Construction Project Engineer to join our team! Responsibilities: * Verify project drawing and specification compliance * Method of Procedure research and development * Construction ...</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAKeJAWObIEBRL7z0gUgVHe5ao4Y3_vwoloBtiAXsnPjIRCpqeE5XxA0tzkmVWmnbkHu0e8BEd4xe2g-i_7EMWWpEKWhZiCoxt_VM1T0ciLOak40lIEJAm773F9logEkzmtJSOqbemFFVcrvW6HOxysvAa1flIzMjE6m6rkj39xanK_FnD5U</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Accountant, Ecommerce Clients</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Accountingfly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New York, New York</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Perform drywall, finishing, and Painting to complete tenant improvements for national retail construction. Truck and tools are required. Extensive travel is required with this position. Company ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/ek/l/AAKjdTbKJGppBgL4HYKoTjVnMU-iYj76Lm_6l344SXV4LnKbwFQ3jucpGrEZLpkRfjJRGiLXUmQSysus-MNW4ZOiGl9jwzw_LDW6-tyJgLAPSmsPzdyWnQwb6-3W4o_tvcULFzW9APOUx3UiTVL_uvYUeQv0L47Yv4ecDg7O8DdbMTFg6vQgmg</x:t>
+    <x:t>https://www.ziprecruiter.com/k/l/AAIhcoIvzOu4Jh0BkUAZPGPXo-yJGs_6JmeR_sCioW5dn1lHl4sYV9qZhcUi6JVpyiXpiMzMzg-3XxDzLO8c1YcXBiygHPI2oR_A-OgbKgL9bNVT7y0mB8CAnYiaNOPcZVY4BHhNGupMIsPpXoRUlS9KE-zNdmRw1DY_sS2XFL_gVl0bw_Kov1M</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -230,8 +236,98 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="74">
+  <x:cellStyleXfs count="104">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -889,27 +985,27 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D5" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E5" s="5" t="s">
-        <x:v>23</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F5" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A6" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B6" s="4" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C6" s="4" t="s">
-        <x:v>27</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
         <x:v>9</x:v>
@@ -929,96 +1025,96 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E7" s="5" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F7" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A8" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D8" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E8" s="5" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F8" s="5" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A9" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B9" s="4" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D9" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E9" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="F9" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A10" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="B10" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="D10" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E10" s="5" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F10" s="5" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
-        <x:v>47</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E11" s="5" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F11" s="5" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">

--- a/Job Hunter/exceltestsheet/ZipRecruiterData.xlsx
+++ b/Job Hunter/exceltestsheet/ZipRecruiterData.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <x:si>
     <x:t>jobTitle</x:t>
   </x:si>
@@ -55,145 +55,133 @@
     <x:t>jobUrl</x:t>
   </x:si>
   <x:si>
-    <x:t>Accountant- Family Office</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Quest Organization</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New York, NY</x:t>
+    <x:t>Project Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jobot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dallas, TX</x:t>
   </x:si>
   <x:si>
     <x:t>Full-Time</x:t>
   </x:si>
   <x:si>
-    <x:t>Strong knowledge of ground-up stick frame (podium, wrap, garden) multifamily projects * 6+ years construction experience as a Construction Manager or Superintendent * Experience with managing ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAK5bH-ujX0aetfDLmO_NKbdWMsbwFlxTXv7Mm_HbSLUWqD3vwI5avQ5BoK4tKTSg9GhKaBQWpj2P2S0gM8HDLk0_vewypxD7LRhzm-Ztn7DQuokXD69IR8Bj0hGn3bx-u6APq5XqpHnms9WT-y6J2Owm4kDIS2rrPid4ukhvuP7HG-2MTgpOA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Property Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Creative Financial Staffing (CFS)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Manhattan, NY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>We are seeking a Commercial Construction Superintendent to join our team! You will oversee project planning, scheduling, subcontractors work. Responsibilities: * Oversee all aspects of construction ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAIOkH8sgkTzkiHdKM3Ybh8sFPf7b4ifP9yRV4juXwH_Kcq0gjQmI-03WzV6d3z_rIlrn5Mkvq2NmyeSgOw1NAdr9vAcss7EmPLAsZMEO8mioNuj7_A2JjpOMy-7AX_1SK_4CdnwxfWP8M8H5ejL6WNa9BhTUxEclwMClhy52z8DnJUHMGcvfQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bookkeeper Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abetta Boiler Welding INC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Education * 4 yr degree in engineering, construction science, construction management or similar Position Summary We are looking for an Assistant Project Manager to perform the technical and support ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAJZo6CtScvPi0RIcjnS8MJ8lEkNY12B729LLyiNf0eyPN4jWwvZ_DOrMpkDSKtfonwTDskZIt5uDp_TrPlRHyOJ2dywrQhFDOx4fJ-ZBSWW0OXZm3UTpd8qU_VDOBtbSJWIo6xJUkOdwQW35raEcsLU2KsGuEGr3A53ysMmK6F5gv8zgdBiQA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Staff Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Indcorp Fiscal Services Inc.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Island Park, NY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Talent Corps is currently hiring for General Labors for the Fort Worth, TX area for a Temp to Perm position. Candidates are needing to be physically fit as this job is physically demanding and may ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAKwWausp_j4tC_ejXpMvxg4uKKX1bpMnO9p1QziVwsNSl924QBlX-FjR4pinqzQ3_Y9SWmSfaT9Gt5Tuwf_151HGLYivDx9WSSWYDNUA4z3_cXl4Kb799R3G0wJQ80frPQtA9dNNTv9BFt2ff1rJp5qXIqxlbjVguePuwFxcUDBZ0u91ER-jg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Junior Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Greater New York Insurance Companies</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Have strong knowledge and experience of all phases of construction scope and sequence * Perform take-offs and estimation on plans * Enter and understand budgets * Possess experience with bid tabs (A ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAJeYo2Q-gj-LOVZ8S1GbwcPnUKYqgYc3Mf6wrhgcE75tkKMScn5vGgYg-SK3VYSJpyiVxe_JYVoX2YJ6bWKhtzf57CaJSD0yQA4iSK4L6MuoqRd-o_JLMfhxtDrTFSQziuDuosUopdQGGkQJEB6hbMNbuAsJr5K97jg3F2AD99G09wOZmutvw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Accountant</x:t>
-  </x:si>
-  <x:si>
-    <x:t>E-Z TAX GROUP NORTH AMERICA INC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flushing, NY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Restaurant Depot is seeking a Construction &amp; Maintenance Manager. Position will be based out of the Dallas/Richardson area offices. This person will be working under the direction of the Director of ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAJURz5oMkNsaGPH5De8eLRxkY2wMDJm3_9PF3YVDWVTWaeJthqZIypT2fRqjVb93pfI97KpFo8DXRtr8FIQggnAAovU1TRaR06dsrT0A9GlbD2mgToR-4iLhL6WGW831_lduvRnS0xxkybTl2oCaTBu97c_fxX0IdYEztFU_4CDTJxCtVWdrA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Real Estate Management Company</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bellmore, NY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Texas Home Builder seeking Construction Managers This Jobot Job is hosted by: Henry Chan Are you a fit? Easy Apply now by clicking the "Apply Now" button and sending us your resume. Salary: $65,000 ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAJDUWlejnI-jKXR-0-WE9cjzypZd8vj9uL2_BPJXffUfFKui8UamwypF-H4khHniLAYJYszppuvA1V-LHceD2FIWwEUh4HVEnnIFh60QW2ZZIZRngR2CJpD7LfOD1puWCADFLpBtyF-UA6RjEtv4BGJfXf82V4NrEgY5C4plkDmcjUc11mOww</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Senior Accountant, Ecommerce Clients</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Accountingfly</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New York, New York</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The Construction Manager role is a player/coach position responsible for both managing overall construction execution of individual projects and overseeing 3rd party construction management firm in ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/ek/l/AALZh9aBzeTQRWfyJzOuBIjByuq1vkZ0xdAKR7IxQo8FLKiN4SnXbaQ3liRLljm902fKp0Xi0T2u9Ip9bsAvp26pM4LZSVno2QsLZuLe51IQWKAZDGCK9M87_sPO6KLuI74hWCw6xrp7R2YEfvfLThbJIq0Vjm_U-C4THpRNon128EszdLvt5g</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Property Accountant - Real Estate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Loughlin Personnel</x:t>
-  </x:si>
-  <x:si>
-    <x:t>White Plains, NY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Primary Function The General Superintendent oversees the construction of multiple projects. He/she will coordinate with other superintendents to ensure other jobsites are being manned properly and ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAKeCO2QEIr_QeNR19TPBBuAKVSyUimli5FAdxtLIMZD6-C5Ot3Yxo009f-UPMZNcIGR6ax2k5LRu_eaoksJNDv77UiA6D53ZADZqIA3cy7JRUc3KdRZaCk1pyi_zylOZdQ0bvirrgFLVtQCXmIu3kXeVNTYBTKXd-XagsozdZ49RF9lpI185A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>McGivney, Kluger, Clark &amp; Intoccia, P.C.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Florham Park, NJ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>We are seeking a Construction Project Engineer to join our team! Responsibilities: * Verify project drawing and specification compliance * Method of Procedure research and development * Construction ...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.ziprecruiter.com/k/l/AAIhcoIvzOu4Jh0BkUAZPGPXo-yJGs_6JmeR_sCioW5dn1lHl4sYV9qZhcUi6JVpyiXpiMzMzg-3XxDzLO8c1YcXBiygHPI2oR_A-OgbKgL9bNVT7y0mB8CAnYiaNOPcZVY4BHhNGupMIsPpXoRUlS9KE-zNdmRw1DY_sS2XFL_gVl0bw_Kov1M</x:t>
+    <x:t>If you are a Residential / Project Engineer with experience in Airport and Aviation projects apply today! Why join us? Do you want to work with some of the nations best Clients AND enjoy time at home ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAIQtvAWKQoy4PvqQA41MHcCmniElZZD1lN0oRqCUi-XetXtCzjRlIhw9yvhdq3BAdOKBRC1qL3ayVX2ksBvvbk2kVBN0AhplNgrFA48-k1sbe-_3-IHNoxwl7r8w7q9Bw9H-5cKRXS_n6Av8YqZOZYfMQCEj9QqeF2jsmkeaXI-edWoeEOUAw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Help Desk Level 2 Engineer - Work From Home</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ten4 Technology Group LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We are searching for an experienced Managed Service Provider Level 2 engineer. The right candidate will possess superior customer service and support skills with prior experience working for a ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAIn40gHlGO--ZFuED1IPvE0UGaxVfYRIeEBFePuFiyy4yPdJWM6pBV2O8w22EgZ1IwSzv8s03EEwENSJDhr9g-iSC-YevlLUbxH3d4ZiakfTND0SE2JRLYXOltAKiCSjmkgrV7_YQ9zEgBp4Ie7MI7gW4xn0P6JExL3FWWyS7aSfd9oQ_3ZoA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hotel Maintenance Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crowne Plaza</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The CROWNE PLAZA DALLAS DOWNTOWN, a 300-unit upscale hotel, has an immediate opening for a professional and friendly Engineer in our maintenance department. Join a great group! Be part of the team ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AALF87QDEMNwO_JHyr5IO6iDig4O5dVjTyfcvUAfxRzMAg5r-RPGYXhT2BioW9ij29pLkE9pfamfO_GHob0DwXzG2TBVx02o-EOsgu4GH_8lCWposNdxBHYCva1efq62-1wCqB3mDVAq73FxqGEjojyzKkb7XQpaKM7I3KTCMX4WcqfNFxsc4g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Audio Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yo 214 Studios</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contractor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Engineering in a professional, world-class studio environment working on all kinds of audio related projects, including music sessions for albums, radio/TV spots, podcasts, audiobooks, and audio-post ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAI1VMESubnTPdlzDGUj9o7FOzmRuSYtsCvCUfSg9F6x-rQQEzzXmCkkG4_wlxIKJA-hyvY2aeUfYBGebZvDA4njvvgiUfm85_cyHw6YTPh8tFbP7Gb5bmAXNamxf1EQtbi51S1ysjGmiicX3zpftxF5vzMyJxo8mwf7Da7okOerl8SzCAkk1Q</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Support Services - TIER 2/3 Support &amp; Operations Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENEA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plano, TX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Preferrally college degree in Computer Science, Computer Engineer, Applied Math or related field. * Technical certification such as CCNA is highly desirable.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AALXEoa3M6K2elVy08KpWygpMdsyqv5zig2A9wPhifRsKfuUSAxcOkiKrOAPmMBQ5_FG8kamHM0DXBbkLlERdChvSAQLbgFb4gJtb3vc_eAAZR9IdLuuMVc3LuBB8XSqE7U-Nk0NxS6tnd1gvR1xW3ljnlSEGzJWbQztnBcOG_BVIA8okjEAHw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Field Service Engineer- Dallas</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Volt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Field Service Engineer Direct Hire Pay $40+ hourly rate Great medical / dental benefits as well as 401K with match Dallas - Fort Worth, TX VOLT is working with a world leading manufacturer of ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AALn8eX5nr21vyb_6A6JIzqpvTjRBkubB4sSIMesadAxLqRfyqkj0Omi6dCXGY0VanTfYik3p9sQgjsW7YNJX4yFKDA7x7FppoYN-O6uarZfzk7A0XmdxSkj0njKlpjAa619zTSuGGDnhw2QRanBmViAYOC4XpxHF80OQ8ro6yFBekEXKWJzmg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Telecom Network Virtualization Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Way Foward Consulting</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Virtualization specifically NFV- Network Function Virtualization. (Minimum 1 year experience) RAN Virtualization &amp; OAMP/OSS Engineer We are looking for a RAN Virtualization &amp; OAMP Engineer to join ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAKIhCQMnLwqXPcApOdeWOlZtiKY3rLNMgo9uLyKcDHfg5v2Ato03NAmnBXZkiBKuwXE0mkaPWzLi_mMKpufFGh3-TPyRDJ0f38Sn0EJrzId9Tvi-VhVf8K8KnB7GTzYRQJK5SSQppAb-4XKKQ6LygtbhoWUv675SScFU2br9fNHuMcdQSblRg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quality Engineer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>The Fountain Group</x:t>
+  </x:si>
+  <x:si>
+    <x:t>We are a national staffing firm and are currently seeking a -----Quality Engineer for a prominent client of ours. This position is located in -- Plano, TX. Details for the position are as follows</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AALdH2A9R1TTsDz4fOp1_CQ_0fSQsRAiVpkD4C2y0oU0bdRxAgPDfaRH0npBQ0oFLNvPqLH1pLHLid03l7aQ3TLrLWfmAAqHSZ2qE4fByLRxRjSLjKcpkzf1F7kVg0tltFvixNdalULspI9r0DP7XfSUleqPa5FQUpkEAfCJjdv9cDJ4zpc1Uw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Call Processing Engineer--Telecom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>... Engineer to join our Wireless network team. You will be a key contributor as a subject matter expert in a multi-functional team of R&amp;D, Systems engineering, and product validation to introduce ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAJjgx17NCmhJtXg2BTZ1a2-KUgSAj-np9jBlnxw4DxIp6mZIcjuHtIlaw7Bk0hqhk9nE8YTW_JNv1-UuOtvveId1xajpF12MkeFveitiNlgO1oQDz2Zf10oyE_L8HJyeN7HGVViNY8FcvOdiqnSMlNhwxfvzNesqCJdyOedeiUoa5Ra9tuZzQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lead Civil Designer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Exceed Engineering, LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Exceed Engineering is a multi-discipline professional engineering firm that provides engineering services to municipalities, state agencies and the private sector. We are a small but busy and growing ...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.ziprecruiter.com/k/l/AAKwgFfQQypfdo9oMfk3LGk0SANk-Bu4B-ukvPareXaMRwiLzCc7wj60KdKxB1naJdpaVZsQis4z5_7aF2VKBWEDnYtPC5S1K6UgqF8k2d-t1WfoA9vek1iIA0Y1xyY2yiEDySfQ3uyYH_eoDQrCpxKbhlcaw0Jvf8OdnMLf0JdC9scwzMJSODU</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -236,8 +224,44 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="104">
+  <x:cellStyleXfs count="116">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -945,67 +969,67 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C3" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D3" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E3" s="5" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D3" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E3" s="5" t="s">
+      <x:c r="F3" s="5" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="F3" s="5" t="s">
-        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A4" s="4" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B4" s="4" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B4" s="4" t="s">
+      <x:c r="C4" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D4" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E4" s="5" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="C4" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D4" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E4" s="5" t="s">
+      <x:c r="F4" s="5" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="F4" s="5" t="s">
-        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A5" s="4" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B5" s="4" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B5" s="4" t="s">
+      <x:c r="C5" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D5" s="4" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="C5" s="4" t="s">
+      <x:c r="E5" s="5" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="D5" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E5" s="5" t="s">
+      <x:c r="F5" s="5" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="F5" s="5" t="s">
-        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A6" s="4" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B6" s="4" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B6" s="4" t="s">
+      <x:c r="C6" s="4" t="s">
         <x:v>27</x:v>
-      </x:c>
-      <x:c r="C6" s="4" t="s">
-        <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="4" t="s">
         <x:v>9</x:v>
@@ -1025,96 +1049,96 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="C7" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D7" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E7" s="5" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="D7" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E7" s="5" t="s">
+      <x:c r="F7" s="5" t="s">
         <x:v>33</x:v>
-      </x:c>
-      <x:c r="F7" s="5" t="s">
-        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A8" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B8" s="4" t="s">
         <x:v>35</x:v>
       </x:c>
       <x:c r="C8" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D8" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E8" s="5" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D8" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E8" s="5" t="s">
+      <x:c r="F8" s="5" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="F8" s="5" t="s">
-        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A9" s="4" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B9" s="4" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B9" s="4" t="s">
+      <x:c r="C9" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E9" s="5" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C9" s="4" t="s">
+      <x:c r="F9" s="5" t="s">
         <x:v>41</x:v>
-      </x:c>
-      <x:c r="D9" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E9" s="5" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F9" s="5" t="s">
-        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:6" customFormat="1" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A10" s="4" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B10" s="4" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C10" s="4" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D10" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="E10" s="5" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F10" s="5" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="B10" s="4" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C10" s="4" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="D10" s="4" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E10" s="5" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F10" s="5" t="s">
-        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:6" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A11" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B11" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C11" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
         <x:v>9</x:v>
       </x:c>
       <x:c r="E11" s="5" t="s">
-        <x:v>51</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F11" s="5" t="s">
-        <x:v>52</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -1125,6 +1149,21 @@
     <x:row r="13" spans="1:6">
       <x:c r="D13" s="4" t="s">
         <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="D14" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="D15" s="4" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="D16" s="4" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
